--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaliullin_b1208\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE112C9-22A5-43D8-B4CB-52865AB1289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8345BE-31D8-42C1-BCB6-5CF147E5FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="36105" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Имя продукта</t>
   </si>
@@ -28,30 +28,6 @@
     <t>Дата окончания</t>
   </si>
   <si>
-    <t>nanoCAD 24.0</t>
-  </si>
-  <si>
-    <t>nanoCAD Металлоконструкции 22.0</t>
-  </si>
-  <si>
-    <t>nanoCAD Металлоконструкции 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Вентиляция 23.1</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Электро 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Отопление 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Отопление 24.0</t>
-  </si>
-  <si>
-    <t>nanoCAD GeoniCS 23.0</t>
-  </si>
-  <si>
     <t>УЗ Селдон 1.7</t>
   </si>
   <si>
@@ -76,15 +52,6 @@
     <t>Адепт:Смета</t>
   </si>
   <si>
-    <t>nanoCAD 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Вентиляция 22.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Электро 24.0</t>
-  </si>
-  <si>
     <t>LineMech, LineMount</t>
   </si>
   <si>
@@ -116,13 +83,113 @@
   </si>
   <si>
     <t>ДОМЕН irida.company</t>
+  </si>
+  <si>
+    <t>Приложение nanoCAD Металлоконструкции 22.0 x64 (Щербаков С. Е. ; project106)</t>
+  </si>
+  <si>
+    <t>Приложение nanoCAD Металлоконструкции 22.0 x64 (Уметбаев Б. Р. ; project135)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Уметбаев Б. Р. ; project135)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Щербаков С. Е. ; project106)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Курапов С.В. ; project143)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 24.0 (Галактионов В. В. ; project141)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 24.0 (Сабиров Р. И. ; project132)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 24.0 (Сабиров А. И. ; project139)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 24.0 (Валиахметов У. Р. ; project120)</t>
+  </si>
+  <si>
+    <t>Приложение nanoCAD BIM Электро 24.0 (Валиахметов У. Р. ; project120)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 24.0 (Ибатуллин А. И. ; project144)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Гриво Е.А. ; project159)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Чекурдаев К.В. ; project162)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Халиков Р.Р. ; project157)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Усманов Т.Ш. ; project110)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Ахметдинов Д.А. ; project160)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Язев А.В. ; project115)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Савельев И.О. ; project131)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Хасанов Р.Ф. ; project153)</t>
+  </si>
+  <si>
+    <t>Приложение nanoCAD BIM Электро 23.0 (Хасанов Р.Ф. ; project153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.09.2024
+</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Газизов А.А. ; project117)</t>
+  </si>
+  <si>
+    <t>Приложение nanoCAD BIM Электро 23.0 (Газизов А.А. ; project117)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 24.0 (Шадров Д.А. ; Project138)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Ямгутдинов Ф. Ф. ; integra09)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Хаджиди К.В. ; SVOS24)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Гайнетдинов Р.А. ; Project145)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Редников А.А. ; SVOS23)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Мангутов А.Ф. ;  SVOS025)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Байгуватов А.С. ; Project147)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Стратичук Н.Н. ; TOKNNOV41)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 23.0 (Еловенкова Е.С. ; project-mini05)</t>
+  </si>
+  <si>
+    <t>Платформа nanoCAD 24.0 (Хасанов А.Ф. ; Project156)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +240,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Hind vad"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -244,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -255,7 +328,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -271,13 +343,11 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,19 +653,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,429 +673,491 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="33.75" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="8">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="11">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="7">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="7">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="9">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="9">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="9">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="9">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="9">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="9">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="9">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="9">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="7">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
-        <v>45727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B57" s="7">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
-        <v>45528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="B58" s="7">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="7">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9">
-        <v>45727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="9">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="9">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
+      <c r="B60" s="7">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="9">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
+      <c r="B61" s="7">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="10">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="8">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="8">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="8">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="8">
-        <v>45591</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="11">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="11">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="11">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="11">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="8">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="8">
-        <v>45783</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="8">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="8">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="8">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="8">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="8">
-        <v>45794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="B62" s="7">
         <v>45799</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A47" r:id="rId1" display="http://goodhost.kz/" xr:uid="{000C61E3-AC0D-4FE0-8234-81EAF03BEDB2}"/>
-    <hyperlink ref="A48" r:id="rId2" display="http://ps.kz/" xr:uid="{37E32373-E756-41DF-90D3-516BF6204429}"/>
+    <hyperlink ref="A56" r:id="rId1" display="http://goodhost.kz/" xr:uid="{000C61E3-AC0D-4FE0-8234-81EAF03BEDB2}"/>
+    <hyperlink ref="A57" r:id="rId2" display="http://ps.kz/" xr:uid="{37E32373-E756-41DF-90D3-516BF6204429}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaliullin_b1208\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8345BE-31D8-42C1-BCB6-5CF147E5FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC451F0-2155-4177-A9E6-59A83C7528D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38790" yWindow="390" windowWidth="32175" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,37 +203,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Hind Vadodara"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Hind Vadodara"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2C2C2C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3E4676"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -242,30 +211,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Hind vad"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -315,40 +280,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,19 +606,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,491 +626,490 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <v>45727</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>45528</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>45504</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" thickBot="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>45504</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>45504</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>45802</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>45802</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>45802</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>45802</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" thickBot="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>45802</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>45802</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>45503</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="4">
         <v>45561</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="33.75" thickBot="1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="4">
         <v>45605</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="4">
         <v>45605</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="4">
         <v>45802</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="28" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A28" s="3" t="s">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A29" s="3" t="s">
+      <c r="B27" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A30" s="3" t="s">
+      <c r="B28" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="B29" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A32" s="3" t="s">
+      <c r="B30" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="B31" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A34" s="3" t="s">
+      <c r="B32" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A35" s="3" t="s">
+      <c r="B33" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="8">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A36" s="10" t="s">
+      <c r="B34" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B35" s="6">
         <v>45695</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3">
         <v>45580</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="7">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="7">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="7">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B40" s="3">
         <v>45535</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A42" s="5" t="s">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B41" s="3">
         <v>45593</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A43" s="5" t="s">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B42" s="3">
         <v>45593</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A44" s="5" t="s">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B43" s="3">
         <v>45593</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A45" s="5" t="s">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B44" s="3">
         <v>45593</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A46" s="5" t="s">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B45" s="3">
         <v>45646</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="7">
-        <v>45591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1">
+        <v>14</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="9">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3">
         <v>45536</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27" thickBot="1">
+    <row r="49" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B50" s="3">
         <v>45536</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="27" thickBot="1">
-      <c r="A50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="9">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="27" thickBot="1">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="9">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="27" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="9">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="27" thickBot="1">
+      <c r="B52" s="3">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="3">
         <v>45481</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" thickBot="1">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="9">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="27" thickBot="1">
-      <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B54" s="3">
         <v>45657</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A56" s="6" t="s">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B55" s="3">
         <v>45783</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A57" s="6" t="s">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B56" s="3">
         <v>45677</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="7">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1">
+      <c r="B58" s="3">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="7">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1">
+        <v>18</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="7">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="7">
-        <v>45794</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B61" s="3">
         <v>45799</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A56" r:id="rId1" display="http://goodhost.kz/" xr:uid="{000C61E3-AC0D-4FE0-8234-81EAF03BEDB2}"/>
-    <hyperlink ref="A57" r:id="rId2" display="http://ps.kz/" xr:uid="{37E32373-E756-41DF-90D3-516BF6204429}"/>
+    <hyperlink ref="A55" r:id="rId1" display="http://goodhost.kz/" xr:uid="{000C61E3-AC0D-4FE0-8234-81EAF03BEDB2}"/>
+    <hyperlink ref="A56" r:id="rId2" display="http://ps.kz/" xr:uid="{37E32373-E756-41DF-90D3-516BF6204429}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaliullin_b1208\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5046DC3D-4989-4D02-841C-63B78FC37415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDDCA8-3C4F-4DEC-8361-EA498BF2BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1230" windowWidth="32175" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>

--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDDCA8-3C4F-4DEC-8361-EA498BF2BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE2576-1730-4BE1-B3BD-7000A8869647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4755" yWindow="1230" windowWidth="32175" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Имя продукта</t>
   </si>
@@ -39,102 +39,6 @@
     <t>Адепт:Смета</t>
   </si>
   <si>
-    <t>Платформа nanoCAD 23.0 (Курапов С.В. ; project143)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Щербаков С. Е. ; project106)</t>
-  </si>
-  <si>
-    <t>Приложение nanoCAD Металлоконструкции 22.0 x64 (Щербаков С. Е. ; project106)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Уметбаев Б. Р. ; project135)</t>
-  </si>
-  <si>
-    <t>Приложение nanoCAD Металлоконструкции 22.0 x64 (Уметбаев Б. Р. ; project135)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 24.0 (Галактионов В. В. ; project141)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 24.0 (Сабиров Р. И. ; project132)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 24.0 (Сабиров А. И. ; project139)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 24.0 (Валиахметов У. Р. ; project120)</t>
-  </si>
-  <si>
-    <t>Приложение nanoCAD BIM Электро 24.0 (Валиахметов У. Р. ; project120)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 24.0 (Ибатуллин А. И. ; project144)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Гриво Е.А. ; project159)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Чекурдаев К.В. ; project162)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Халиков Р.Р. ; project157)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Усманов Т.Ш. ; project110)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Ахметдинов Д.А. ; project160)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Язев А.В. ; project115)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Савельев И.О. ; project131)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Хасанов Р.Ф. ; project153)</t>
-  </si>
-  <si>
-    <t>Приложение nanoCAD BIM Электро 23.0 (Хасанов Р.Ф. ; project153)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Газизов А.А. ; project117)</t>
-  </si>
-  <si>
-    <t>Приложение nanoCAD BIM Электро 23.0 (Газизов А.А. ; project117)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 24.0 (Шадров Д.А. ; Project138)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Ямгутдинов Ф. Ф. ; integra09)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Хаджиди К.В. ; SVOS24)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Гайнетдинов Р.А. ; Project145)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Редников А.А. ; SVOS23)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Мангутов А.Ф. ;  SVOS025)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Байгуватов А.С. ; Project147)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Стратичук Н.Н. ; TOKNNOV41)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 23.0 (Еловенкова Е.С. ; project-mini05)</t>
-  </si>
-  <si>
-    <t>Платформа nanoCAD 24.0 (Хасанов А.Ф. ; Project156)</t>
-  </si>
-  <si>
     <t>УЗ Селдон 1.7</t>
   </si>
   <si>
@@ -147,27 +51,6 @@
     <t>Сметно-аналитический комплекс А0</t>
   </si>
   <si>
-    <t>Acrobat Pro</t>
-  </si>
-  <si>
-    <t>Creative Cloud — Все приложения</t>
-  </si>
-  <si>
-    <t>Kaspersky Endpoint Security</t>
-  </si>
-  <si>
-    <t>Kaspersky Security для виртуальных и облачных сред, Desktop Russian Edition</t>
-  </si>
-  <si>
-    <t>Kaspersky Security для виртуальных и облачных сред, Server Russian Edition</t>
-  </si>
-  <si>
-    <t>Kaspersky Endpoint Security для бизнеса – Стандартный Russian Edition</t>
-  </si>
-  <si>
-    <t>Kaspersky Endpoint Security for Business - Select Kazakhstan Edition</t>
-  </si>
-  <si>
     <t>goodhost.kz Хостинг</t>
   </si>
   <si>
@@ -184,6 +67,39 @@
   </si>
   <si>
     <t>ДОМЕН irida.company</t>
+  </si>
+  <si>
+    <t>nanoCAD 23.0</t>
+  </si>
+  <si>
+    <t>nanoCAD 24.0</t>
+  </si>
+  <si>
+    <t>nanoCAD Металлоконструкции 22.0</t>
+  </si>
+  <si>
+    <t>nanoCAD Металлоконструкции 23.0</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Вентиляция 22.0</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Вентиляция 23.1</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Электро 23.0</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Электро 24.0</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Отопление 23.0</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Отопление 24.0</t>
+  </si>
+  <si>
+    <t>nanoCAD GeoniCS 23.0</t>
   </si>
 </sst>
 </file>
@@ -576,7 +492,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +527,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>45612</v>
@@ -619,7 +535,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>45504</v>
@@ -627,7 +543,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>45504</v>
@@ -635,7 +551,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>45612</v>
@@ -643,7 +559,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>45504</v>
@@ -651,7 +567,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>45802</v>
@@ -659,7 +575,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>45802</v>
@@ -667,7 +583,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>45802</v>
@@ -675,7 +591,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>45802</v>
@@ -683,7 +599,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>45802</v>
@@ -691,7 +607,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>45802</v>
@@ -699,7 +615,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>45612</v>
@@ -707,7 +623,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>45503</v>
@@ -715,7 +631,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>45612</v>
@@ -723,7 +639,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>45612</v>
@@ -731,7 +647,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>45612</v>
@@ -755,7 +671,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>45561</v>
@@ -763,7 +679,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>45561</v>
@@ -771,7 +687,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>45605</v>
@@ -779,7 +695,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>45605</v>
@@ -787,7 +703,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>45802</v>
@@ -795,7 +711,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
         <v>45612</v>
@@ -803,7 +719,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1">
         <v>45612</v>
@@ -811,7 +727,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
         <v>45612</v>
@@ -819,7 +735,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>45612</v>
@@ -827,7 +743,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1">
         <v>45612</v>
@@ -835,7 +751,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1">
         <v>45612</v>
@@ -843,7 +759,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1">
         <v>45612</v>
@@ -851,7 +767,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1">
         <v>45612</v>
@@ -859,7 +775,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B35" s="4">
         <v>45695</v>
@@ -867,7 +783,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1">
         <v>45580</v>
@@ -875,7 +791,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B37" s="1">
         <v>45580</v>
@@ -883,7 +799,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1">
         <v>45565</v>
@@ -891,7 +807,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>45598</v>
@@ -899,7 +815,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1">
         <v>45535</v>
@@ -907,7 +823,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1">
         <v>45593</v>
@@ -915,7 +831,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1">
         <v>45593</v>
@@ -923,7 +839,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1">
         <v>45593</v>
@@ -931,7 +847,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1">
         <v>45593</v>
@@ -939,7 +855,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1">
         <v>45646</v>
@@ -947,7 +863,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1">
         <v>45591</v>
@@ -955,7 +871,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B47" s="5">
         <v>45536</v>
@@ -963,7 +879,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B48" s="5">
         <v>45536</v>
@@ -971,7 +887,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B49" s="5">
         <v>45536</v>
@@ -979,7 +895,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B50" s="5">
         <v>45536</v>
@@ -987,7 +903,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B51" s="5">
         <v>45482</v>
@@ -995,7 +911,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B52" s="5">
         <v>45481</v>
@@ -1003,7 +919,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B53" s="5">
         <v>45481</v>
@@ -1011,7 +927,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B54" s="5">
         <v>45657</v>
@@ -1019,7 +935,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
         <v>45783</v>
@@ -1027,7 +943,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1">
         <v>45677</v>
@@ -1035,7 +951,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
         <v>45597</v>
@@ -1043,7 +959,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1">
         <v>45754</v>
@@ -1051,7 +967,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B59" s="1">
         <v>45750</v>
@@ -1059,7 +975,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1">
         <v>45794</v>
@@ -1067,7 +983,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1">
         <v>45799</v>

--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE112C9-22A5-43D8-B4CB-52865AB1289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31CF559-C79C-4C48-90C2-AFEB11261D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="36105" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41925" yWindow="3435" windowWidth="32175" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Имя продукта</t>
   </si>
@@ -49,27 +49,6 @@
     <t>nanoCAD BIM Отопление 24.0</t>
   </si>
   <si>
-    <t>nanoCAD GeoniCS 23.0</t>
-  </si>
-  <si>
-    <t>УЗ Селдон 1.7</t>
-  </si>
-  <si>
-    <t>УЗ Лайт 2.0</t>
-  </si>
-  <si>
-    <t>Kaspersky Security для виртуальных и облачных сред, Desktop Russian Edition</t>
-  </si>
-  <si>
-    <t>Kaspersky Security для виртуальных и облачных сред, Server Russian Edition</t>
-  </si>
-  <si>
-    <t>Kaspersky Endpoint Security для бизнеса – Стандартный Russian Edition</t>
-  </si>
-  <si>
-    <t>Kaspersky Endpoint Security for Business - Select Kazakhstan Edition</t>
-  </si>
-  <si>
     <t>АРГО</t>
   </si>
   <si>
@@ -83,46 +62,13 @@
   </si>
   <si>
     <t>nanoCAD BIM Электро 24.0</t>
-  </si>
-  <si>
-    <t>LineMech, LineMount</t>
-  </si>
-  <si>
-    <t>Сметно-аналитический комплекс А0</t>
-  </si>
-  <si>
-    <t>Acrobat Pro</t>
-  </si>
-  <si>
-    <t>Creative Cloud — Все приложения</t>
-  </si>
-  <si>
-    <t>Kaspersky Endpoint Security</t>
-  </si>
-  <si>
-    <t>goodhost.kz Хостинг</t>
-  </si>
-  <si>
-    <t>ps.kz Домен</t>
-  </si>
-  <si>
-    <t>Zoom</t>
-  </si>
-  <si>
-    <t>AnyDesk</t>
-  </si>
-  <si>
-    <t>FIGMA</t>
-  </si>
-  <si>
-    <t>ДОМЕН irida.company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,30 +98,8 @@
       <color theme="1"/>
       <name val="Hind Vadodara"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2C2C2C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3E4676"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,12 +109,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,11 +158,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -255,34 +172,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,185 +502,185 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
         <v>45727</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8">
-        <v>45528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9">
-        <v>45727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="4">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="9">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="4">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="4">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="4">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="4">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="4">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="4">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9">
-        <v>45605</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45748</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="5">
         <v>45802</v>
       </c>
     </row>
@@ -791,243 +688,12 @@
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="5">
         <v>45802</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="10">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="8">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="8">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="8">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="8">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="8">
-        <v>45591</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="11">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="11">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="11">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="11">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="11">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="8">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="8">
-        <v>45783</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="8">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="8">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="8">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="8">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="8">
-        <v>45794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="8">
-        <v>45799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A47" r:id="rId1" display="http://goodhost.kz/" xr:uid="{000C61E3-AC0D-4FE0-8234-81EAF03BEDB2}"/>
-    <hyperlink ref="A48" r:id="rId2" display="http://ps.kz/" xr:uid="{37E32373-E756-41DF-90D3-516BF6204429}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31CF559-C79C-4C48-90C2-AFEB11261D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFEB4C8-6C91-407E-B2B0-B268B5927EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41925" yWindow="3435" windowWidth="32175" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="32175" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,11 +90,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Hind Vadodara"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Hind Vadodara"/>
     </font>
@@ -161,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -173,9 +168,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,7 +475,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>45727</v>
+        <v>45423</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -513,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4">
-        <v>45728</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -521,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>45729</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -529,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>45730</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -537,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="4">
-        <v>45731</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -545,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>45732</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -553,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>45733</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -561,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>45734</v>
+        <v>45430</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -569,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>45735</v>
+        <v>45431</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -577,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>45736</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -585,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>45737</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -593,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>45738</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -601,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>45739</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -609,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>45740</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -617,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>45741</v>
+        <v>45437</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -625,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="4">
-        <v>45742</v>
+        <v>45438</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -633,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="4">
-        <v>45743</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -641,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="4">
-        <v>45744</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -649,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4">
-        <v>45745</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -657,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4">
-        <v>45746</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -665,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="4">
-        <v>45747</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -673,23 +665,23 @@
         <v>13</v>
       </c>
       <c r="B23" s="4">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="5">
-        <v>45802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="4">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5">
-        <v>45802</v>
+      <c r="B25" s="4">
+        <v>45446</v>
       </c>
     </row>
   </sheetData>

--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFEB4C8-6C91-407E-B2B0-B268B5927EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5AAFA8-D287-4DF7-B88C-CCCC298ED52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="32175" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1995" windowWidth="32145" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Имя продукта</t>
   </si>
@@ -28,40 +28,157 @@
     <t>Дата окончания</t>
   </si>
   <si>
-    <t>nanoCAD 24.0</t>
-  </si>
-  <si>
-    <t>nanoCAD Металлоконструкции 22.0</t>
-  </si>
-  <si>
-    <t>nanoCAD Металлоконструкции 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Вентиляция 23.1</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Электро 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Отопление 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Отопление 24.0</t>
-  </si>
-  <si>
     <t>АРГО</t>
   </si>
   <si>
     <t>Адепт:Смета</t>
   </si>
   <si>
-    <t>nanoCAD 23.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Вентиляция 22.0</t>
-  </si>
-  <si>
-    <t>nanoCAD BIM Электро 24.0</t>
+    <t>УЗ Селдон 1.7</t>
+  </si>
+  <si>
+    <t>УЗ Лайт 2.0</t>
+  </si>
+  <si>
+    <t>LineMech, LineMount</t>
+  </si>
+  <si>
+    <t>Сметно-аналитический комплекс А0</t>
+  </si>
+  <si>
+    <t>Acrobat Pro</t>
+  </si>
+  <si>
+    <t>Creative Cloud — Все приложения</t>
+  </si>
+  <si>
+    <t>Kaspersky Endpoint Security</t>
+  </si>
+  <si>
+    <t>Kaspersky Security для виртуальных и облачных сред, Desktop Russian Edition</t>
+  </si>
+  <si>
+    <t>Kaspersky Security для виртуальных и облачных сред, Server Russian Edition</t>
+  </si>
+  <si>
+    <t>Kaspersky Endpoint Security для бизнеса – Стандартный Russian Edition</t>
+  </si>
+  <si>
+    <t>Kaspersky Endpoint Security for Business - Select Kazakhstan Edition</t>
+  </si>
+  <si>
+    <t>goodhost.kz Хостинг</t>
+  </si>
+  <si>
+    <t>ps.kz Домен</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>AnyDesk</t>
+  </si>
+  <si>
+    <t>FIGMA</t>
+  </si>
+  <si>
+    <t>ДОМЕН irida.company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Курапов С.В. ; project143)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Щербаков С. Е. ; project106)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Уметбаев Б. Р. ; project135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 24.0 (Галактионов В. В. ; project141)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 24.0 (Сабиров Р. И. ; project132)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 24.0 (Сабиров А. И. ; project139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 24.0 (Валиахметов У. Р. ; project120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 24.0 (Ибатуллин А. И. ; project144)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Гриво Е.А. ; project159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Чекурдаев К.В. ; project162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Халиков Р.Р. ; project157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Усманов Т.Ш. ; project110)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Ахметдинов Д.А. ; project160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Язев А.В. ; project115)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Савельев И.О. ; project131)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Хасанов Р.Ф. ; project153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Газизов А.А. ; project117)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 24.0 (Шадров Д.А. ; Project138)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Ямгутдинов Ф. Ф. ; integra09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Хаджиди К.В. ; SVOS24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Гайнетдинов Р.А. ; Project145)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Редников А.А. ; SVOS23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Мангутов А.Ф. ;  SVOS025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Байгуватов А.С. ; Project147)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Стратичук Н.Н. ; TOKNNOV41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 23.0 (Еловенкова Е.С. ; project-mini05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD 24.0 (Хасанов А.Ф. ; Project156)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD Металлоконструкции 22.0 x64 (Щербаков С. Е. ; project106)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD Металлоконструкции 22.0 x64 (Уметбаев Б. Р. ; project135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD BIM Электро 24.0 (Валиахметов У. Р. ; project120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD BIM Электро 23.0 (Хасанов Р.Ф. ; project153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD BIM Электро 23.0 (Газизов А.А. ; project117)</t>
   </si>
 </sst>
 </file>
@@ -90,22 +207,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Hind Vadodara"/>
+      <color rgb="FF3E4676"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -156,19 +269,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,16 +588,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -494,194 +610,482 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45423</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45727</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="B47" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="B48" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4">
-        <v>45437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="B50" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="B51" s="5">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="B52" s="5">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="4">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4">
-        <v>45446</v>
+      <c r="B53" s="5">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45799</v>
       </c>
     </row>
   </sheetData>

--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\calendar_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\elf\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5AAFA8-D287-4DF7-B88C-CCCC298ED52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED6F58-41ED-4FC8-B408-6F78313065C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1995" windowWidth="32145" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Имя продукта</t>
   </si>
@@ -46,9 +57,6 @@
     <t>Сметно-аналитический комплекс А0</t>
   </si>
   <si>
-    <t>Acrobat Pro</t>
-  </si>
-  <si>
     <t>Creative Cloud — Все приложения</t>
   </si>
   <si>
@@ -73,9 +81,6 @@
     <t>ps.kz Домен</t>
   </si>
   <si>
-    <t>Zoom</t>
-  </si>
-  <si>
     <t>AnyDesk</t>
   </si>
   <si>
@@ -85,107 +90,80 @@
     <t>ДОМЕН irida.company</t>
   </si>
   <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Курапов С.В. ; project143)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Щербаков С. Е. ; project106)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Уметбаев Б. Р. ; project135)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 24.0 (Галактионов В. В. ; project141)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 24.0 (Сабиров Р. И. ; project132)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 24.0 (Сабиров А. И. ; project139)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 24.0 (Валиахметов У. Р. ; project120)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 24.0 (Ибатуллин А. И. ; project144)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Гриво Е.А. ; project159)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Чекурдаев К.В. ; project162)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Халиков Р.Р. ; project157)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Усманов Т.Ш. ; project110)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Ахметдинов Д.А. ; project160)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Язев А.В. ; project115)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Савельев И.О. ; project131)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Хасанов Р.Ф. ; project153)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Газизов А.А. ; project117)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 24.0 (Шадров Д.А. ; Project138)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Ямгутдинов Ф. Ф. ; integra09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Хаджиди К.В. ; SVOS24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Гайнетдинов Р.А. ; Project145)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Редников А.А. ; SVOS23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Мангутов А.Ф. ;  SVOS025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Байгуватов А.С. ; Project147)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Стратичук Н.Н. ; TOKNNOV41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 23.0 (Еловенкова Е.С. ; project-mini05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD 24.0 (Хасанов А.Ф. ; Project156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD Металлоконструкции 22.0 x64 (Щербаков С. Е. ; project106)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD Металлоконструкции 22.0 x64 (Уметбаев Б. Р. ; project135)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD BIM Электро 24.0 (Валиахметов У. Р. ; project120)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD BIM Электро 23.0 (Хасанов Р.Ф. ; project153)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD BIM Электро 23.0 (Газизов А.А. ; project117)</t>
+    <t>svos.company (почта)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrobat Pro </t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P26322 - 4 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) NC240P26324 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) NC240P16570 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P14478 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) NC240P14479 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P82685  - 4 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС, Организация, Топоплан, Растр) NC240P82684 -  2 места</t>
+  </si>
+  <si>
+    <t>Zoom (Уфанет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Галактионов В. В. ; project141)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Сабиров Р. И. ; project132)</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) (Сабиров А. И. ; project139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Валиахметов У. Р. ; project120)</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Электро (Валиахметов У. Р. ; project120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС, 3D) (Ибатуллин А. И. ; project144)</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Электро (Хасанов Р.Ф. ; project153)</t>
+  </si>
+  <si>
+    <t>nanoCAD BIM Электро (Газизов А.А. ; project117)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Хасанов Р.Ф. ; project153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Газизов А.А. ; project117)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Шадров Д.А. ; Project138)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Хабиров Д.Ю. ; Project122)</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) (Хасанов А.Ф. ; project156)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +184,33 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF3E4676"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +221,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -277,21 +280,123 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,23 +693,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" customWidth="1"/>
+    <col min="1" max="1" width="99.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -612,7 +718,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>45727</v>
       </c>
     </row>
@@ -620,15 +726,15 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>45528</v>
+      <c r="B3" s="5">
+        <v>45930</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>45612</v>
       </c>
     </row>
@@ -636,459 +742,399 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3">
-        <v>45504</v>
+      <c r="B5" s="5">
+        <v>45612</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45504</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45612</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45868</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45504</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45868</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45802</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45868</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45802</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45868</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45802</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45945</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45802</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45945</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45802</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45930</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45802</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45598</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45612</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45900</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45503</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45627</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45612</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45627</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45612</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45627</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45612</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45627</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45612</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45646</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3">
-        <v>45612</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45956</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45561</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45902</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45561</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45902</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3">
-        <v>45605</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45902</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="3">
-        <v>45605</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45855</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45802</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45856</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>45612</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45856</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="3">
-        <v>45612</v>
+        <v>13</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45291</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3">
-        <v>45612</v>
+        <v>14</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45783</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3">
-        <v>45612</v>
+        <v>15</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45677</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="3">
-        <v>45612</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45754</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="3">
-        <v>45612</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45750</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="3">
-        <v>45612</v>
+        <v>17</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45794</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="3">
-        <v>45612</v>
+        <v>18</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45799</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="4">
-        <v>45695</v>
+      <c r="A35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45920</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3">
-        <v>45580</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="7">
+        <v>45802</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="3">
-        <v>45580</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="7">
+        <v>45802</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="3">
-        <v>45565</v>
+        <v>31</v>
+      </c>
+      <c r="B38" s="7">
+        <v>45802</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3">
-        <v>45598</v>
+        <v>32</v>
+      </c>
+      <c r="B39" s="7">
+        <v>45802</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3">
-        <v>45535</v>
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45802</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3">
-        <v>45593</v>
+        <v>34</v>
+      </c>
+      <c r="B41" s="7">
+        <v>45802</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="3">
-        <v>45593</v>
+        <v>37</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45926</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="3">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="3">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="3">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="3">
-        <v>45591</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="9">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="9">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="5">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="5">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="5">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="5">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="3">
-        <v>45783</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="3">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="3">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="3">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="3">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="3">
-        <v>45794</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="3">
-        <v>45799</v>
+        <v>41</v>
+      </c>
+      <c r="B48" s="9">
+        <v>45695</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B31:B39 B41:B337">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>B31:B235-TODAY()&lt;-45</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>B31:B394-TODAY()&lt;90</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>B31:B394-TODAY()&gt;90</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B30">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>B25:B228-TODAY()&lt;-45</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>B25:B387-TODAY()&lt;90</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>B25:B387-TODAY()&gt;90</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B24">
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>B11:B213-TODAY()&lt;45</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>B11:B372-TODAY()&lt;90</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="19">
+      <formula>B11:B372-TODAY()&gt;90</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="expression" dxfId="2" priority="20">
+      <formula>B2:B178-TODAY()&lt;45</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="21">
+      <formula>B2:B337-TODAY()&lt;90</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>B2:B337-TODAY()&gt;90</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/software_expiry_dates.xlsx
+++ b/software_expiry_dates.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\elf\soft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED6F58-41ED-4FC8-B408-6F78313065C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6225A133-7FC5-4329-AE10-222A0BA46DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40890" yWindow="2415" windowWidth="34230" windowHeight="18390" xr2:uid="{5EDCCF48-5CD1-4726-96C7-BE7FC8C59DF3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -45,6 +48,27 @@
     <t>Адепт:Смета</t>
   </si>
   <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P26322 - 4 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) NC240P26324 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) NC240P16570 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P14478 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа) NC240P14479 - 2 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P82685  - 4 места</t>
+  </si>
+  <si>
+    <t>NanoCAD (Платформа, 3D, Механика, СПДС, Организация, Топоплан, Растр) NC240P82684 -  2 места</t>
+  </si>
+  <si>
     <t>УЗ Селдон 1.7</t>
   </si>
   <si>
@@ -57,6 +81,9 @@
     <t>Сметно-аналитический комплекс А0</t>
   </si>
   <si>
+    <t xml:space="preserve">Acrobat Pro </t>
+  </si>
+  <si>
     <t>Creative Cloud — Все приложения</t>
   </si>
   <si>
@@ -81,6 +108,9 @@
     <t>ps.kz Домен</t>
   </si>
   <si>
+    <t>Zoom (Уфанет)</t>
+  </si>
+  <si>
     <t>AnyDesk</t>
   </si>
   <si>
@@ -93,33 +123,6 @@
     <t>svos.company (почта)</t>
   </si>
   <si>
-    <t xml:space="preserve">Acrobat Pro </t>
-  </si>
-  <si>
-    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P26322 - 4 места</t>
-  </si>
-  <si>
-    <t>NanoCAD (Платформа) NC240P26324 - 2 места</t>
-  </si>
-  <si>
-    <t>NanoCAD (Платформа) NC240P16570 - 2 места</t>
-  </si>
-  <si>
-    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P14478 - 2 места</t>
-  </si>
-  <si>
-    <t>NanoCAD (Платформа) NC240P14479 - 2 места</t>
-  </si>
-  <si>
-    <t>NanoCAD (Платформа, 3D, Механика, СПДС) NC240P82685  - 4 места</t>
-  </si>
-  <si>
-    <t>NanoCAD (Платформа, 3D, Механика, СПДС, Организация, Топоплан, Растр) NC240P82684 -  2 места</t>
-  </si>
-  <si>
-    <t>Zoom (Уфанет)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Галактионов В. В. ; project141)</t>
   </si>
   <si>
@@ -138,16 +141,16 @@
     <t xml:space="preserve"> NanoCAD (Платформа, СПДС, 3D) (Ибатуллин А. И. ; project144)</t>
   </si>
   <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Хасанов Р.Ф. ; project153)</t>
+  </si>
+  <si>
     <t>nanoCAD BIM Электро (Хасанов Р.Ф. ; project153)</t>
   </si>
   <si>
+    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Газизов А.А. ; project117)</t>
+  </si>
+  <si>
     <t>nanoCAD BIM Электро (Газизов А.А. ; project117)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Хасанов Р.Ф. ; project153)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Газизов А.А. ; project117)</t>
   </si>
   <si>
     <t xml:space="preserve"> NanoCAD (Платформа, СПДС) (Шадров Д.А. ; Project138)</t>
@@ -169,6 +172,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,16 +181,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -277,22 +281,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,12 +395,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF5050"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,9 +408,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,44 +418,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -483,14 +482,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -517,9 +534,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,466 +563,441 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0BE1B-3CBF-4563-BF5C-0E5E7867E26B}">
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>45727</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>45930</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B28" s="4">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B29" s="4">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B30" s="4">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5">
-        <v>45868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B31" s="4">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5">
-        <v>45868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B32" s="4">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5">
-        <v>45868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B33" s="4">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5">
-        <v>45868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45930</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="5">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="5">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5">
-        <v>45855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="5">
-        <v>45856</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="5">
-        <v>45856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="5">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5">
-        <v>45783</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B34" s="4">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B31" s="5">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="5">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5">
-        <v>45794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="5">
-        <v>45799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B35" s="6">
         <v>45920</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="7">
@@ -995,7 +1005,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="7">
@@ -1003,7 +1013,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="7">
@@ -1011,7 +1021,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="7">
@@ -1019,7 +1029,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="8">
@@ -1027,7 +1037,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="7">
@@ -1035,39 +1045,39 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>37</v>
+      <c r="A42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B42" s="7">
         <v>45926</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>35</v>
+      <c r="A43" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B43" s="7">
         <v>45926</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>38</v>
+      <c r="A44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B44" s="9">
         <v>45605</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>36</v>
+      <c r="A45" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B45" s="9">
         <v>45605</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="9">
@@ -1075,7 +1085,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B47" s="9">
@@ -1083,7 +1093,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="9">
@@ -1091,51 +1101,50 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B31:B39 B41:B337">
-    <cfRule type="expression" dxfId="11" priority="2">
+  <conditionalFormatting sqref="B31:B39 B41:B48">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>B31:B235-TODAY()&lt;-45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>B31:B394-TODAY()&lt;90</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>B31:B394-TODAY()&gt;90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B30">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>B25:B228-TODAY()&lt;-45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>B25:B387-TODAY()&lt;90</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>B25:B387-TODAY()&gt;90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B24">
-    <cfRule type="expression" dxfId="5" priority="17">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>B11:B213-TODAY()&lt;45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>B11:B372-TODAY()&lt;90</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="19">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>B11:B372-TODAY()&gt;90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>B2:B178-TODAY()&lt;45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>B2:B337-TODAY()&lt;90</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="22">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>B2:B337-TODAY()&gt;90</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>